--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>3.068731566278197e-08</v>
+        <v>1.688057553594191e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>3.923932160975717e-08</v>
+        <v>4.654804541283491e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684796797291307e-08</v>
+        <v>6.987109706833451e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>8.075759292350897e-08</v>
+        <v>7.283422223950824e-09</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.088941216404923e-07</v>
+        <v>7.55653939539518e-09</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.252700309969724e-07</v>
+        <v>7.985383725155368e-09</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>3.745850902588019e-07</v>
+        <v>7.219325977099793e-09</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.018390220127261e-06</v>
+        <v>7.916606645096871e-09</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.632345643720272e-06</v>
+        <v>5.879358818470033e-09</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.764602255076754e-06</v>
+        <v>7.385380042975976e-09</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.401045520313332e-06</v>
+        <v>5.730459520669288e-09</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>7.1547309396001e-07</v>
+        <v>5.10251090935913e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>5.457964484999784e-07</v>
+        <v>5.89412621840702e-09</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>6.893622845296736e-07</v>
+        <v>4.484197911585811e-09</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>3.032390478914997e-07</v>
+        <v>4.580900222413179e-09</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>2.182174801248804e-07</v>
+        <v>3.964934556358369e-09</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.250124491585489e-07</v>
+        <v>4.058411429228114e-09</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>6.435817489027662e-08</v>
+        <v>5.216164669717655e-09</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>4.919939163932124e-08</v>
+        <v>4.282147105259788e-09</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4.940017527009463e-08</v>
+        <v>4.977179549159631e-09</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>5.855228353603065e-08</v>
+        <v>9.457231674726285e-09</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>7.396962671911089e-08</v>
+        <v>1.058083938208142e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>7.094898698880741e-08</v>
+        <v>1.401479265633932e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.499142039818403e-07</v>
+        <v>1.530875434113572e-08</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>2.261010136283503e-07</v>
+        <v>1.340201301572159e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>5.391269322476295e-07</v>
+        <v>1.627183376537565e-08</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.335188277659869e-06</v>
+        <v>1.481956750330011e-08</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.292210022399143e-06</v>
+        <v>1.542145576240224e-08</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>6.908979838534625e-07</v>
+        <v>1.510867297931643e-08</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>3.541960912152364e-07</v>
+        <v>1.504191661669026e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.745450847341196e-07</v>
+        <v>1.419386854953322e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>1.772906210320007e-07</v>
+        <v>1.311137190558837e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.223679964197297e-07</v>
+        <v>1.560437594164989e-08</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.067269483779767e-07</v>
+        <v>1.36243188492314e-08</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.792875611035066e-08</v>
+        <v>1.31770714955055e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>7.652734849783051e-08</v>
+        <v>8.555480694908158e-09</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.610363619796697e-07</v>
+        <v>8.71145037160769e-09</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04504642251944e-07</v>
+        <v>7.155283936973476e-09</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>4.584363821542034e-08</v>
+        <v>8.734487919325617e-09</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.882627284314334e-08</v>
+        <v>1.313340533617569e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>3.416757852509455e-08</v>
+        <v>1.33785407172751e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>4.212201733792998e-08</v>
+        <v>1.24484479394915e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>7.317590556604113e-08</v>
+        <v>1.112316208779257e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.679052620641057e-07</v>
+        <v>1.161347819140479e-08</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.87387926097804e-07</v>
+        <v>1.11404007921156e-08</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>2.14005789074063e-07</v>
+        <v>7.146196680887812e-09</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.197853086712361e-07</v>
+        <v>9.070230559516605e-09</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.940141966981034e-07</v>
+        <v>1.304451057179597e-08</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.66812432442375e-07</v>
+        <v>1.846124431340564e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.230231279743743e-07</v>
+        <v>2.480219077839209e-08</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.10161319086033e-07</v>
+        <v>5.112223624478055e-08</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.031879408547346e-07</v>
+        <v>8.46976423141776e-08</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>1.03497696313291e-07</v>
+        <v>2.298403335629244e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>9.967256001967765e-08</v>
+        <v>3.677075303460707e-07</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.857705769909539e-08</v>
+        <v>3.960602424933297e-07</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.107098205869882e-07</v>
+        <v>3.135322196217246e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>1.436493116093207e-07</v>
+        <v>1.596312552362673e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>2.246731519321053e-07</v>
+        <v>1.216817359520182e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>3.370182700646936e-07</v>
+        <v>1.535822793459675e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>4.36140888938457e-07</v>
+        <v>6.750475550987125e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>5.696050480368429e-07</v>
+        <v>4.852830649362207e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>7.007299644366859e-07</v>
+        <v>2.774988983483877e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>7.516406126819434e-07</v>
+        <v>1.423218809400966e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>9.223413235252448e-07</v>
+        <v>1.087206828591712e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.111345687460482e-06</v>
+        <v>1.090476881660989e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.115548892956777e-06</v>
+        <v>1.290127429563187e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.235896540092004e-06</v>
+        <v>1.626725102765765e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.250366201664276e-06</v>
+        <v>1.557898182797165e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.234502953512211e-06</v>
+        <v>3.28496500596556e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.206357382807508e-06</v>
+        <v>4.944937898580673e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.204066264671194e-06</v>
+        <v>1.174946859854578e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.137126522135272e-06</v>
+        <v>2.898726501353821e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.10364362288737e-06</v>
+        <v>2.795144326284928e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>8.900296238984635e-07</v>
+        <v>1.489016354392149e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>8.168686423435135e-07</v>
+        <v>7.605358535936391e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>6.806150598910644e-07</v>
+        <v>3.73380398943201e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>5.190329528197657e-07</v>
+        <v>3.778965197807524e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>4.692530808471895e-07</v>
+        <v>2.598453418149474e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>3.995791422768623e-07</v>
+        <v>2.258218802095452e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>3.783378670446535e-07</v>
+        <v>1.434524431767915e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3.792032877399666e-07</v>
+        <v>1.613257839600841e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>3.738471562816374e-07</v>
+        <v>3.382279261599726e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>3.594377962783205e-07</v>
+        <v>2.178674033552663e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>3.599151854077734e-07</v>
+        <v>9.522025500585841e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>3.623340870026037e-07</v>
+        <v>8.035438752398465e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>4.028290879436335e-07</v>
+        <v>7.019084453869009e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>4.365234746790231e-07</v>
+        <v>8.5896490592089e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>4.565144652928697e-07</v>
+        <v>1.481259510300815e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>4.574864731086839e-07</v>
+        <v>3.392327094834363e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>4.461925540115176e-07</v>
+        <v>3.780788860566502e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>4.19693191120202e-07</v>
+        <v>4.300103901651504e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>3.566837124252578e-07</v>
+        <v>4.408130946908441e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.189533438889545e-07</v>
+        <v>3.883854120976333e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.8287049461762e-07</v>
+        <v>3.327099723893454e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.448150361373243e-07</v>
+        <v>2.444863373078694e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.097555844892937e-07</v>
+        <v>2.181110824808434e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.020792541228445e-07</v>
+        <v>2.04143901045538e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>9.969389618669679e-08</v>
+        <v>2.045220076695974e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.011585345161345e-07</v>
+        <v>1.966155252219233e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>9.589153546005236e-08</v>
+        <v>1.93750872752537e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>9.515836033900129e-08</v>
+        <v>2.159873563183874e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>9.554183333149582e-08</v>
+        <v>2.785746025809379e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>9.514526669310344e-08</v>
+        <v>4.319260110368291e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>9.333123927217989e-08</v>
+        <v>6.45515710122544e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>9.128462902858047e-08</v>
+        <v>8.322299374460462e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>9.104493865201145e-08</v>
+        <v>1.082968889665078e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>8.141352564937483e-08</v>
+        <v>1.329234015132426e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>8.261318147786662e-08</v>
+        <v>1.423685121407303e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>8.29987954100885e-08</v>
+        <v>1.74267938751387e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>8.224511225322169e-08</v>
+        <v>2.092187570163725e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>7.189110590043193e-08</v>
+        <v>2.097375995945003e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>6.186307802612201e-08</v>
+        <v>2.318090343840299e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>5.826969770810055e-08</v>
+        <v>2.340814757040924e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>5.667231384993988e-08</v>
+        <v>2.308663791389909e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>6.970202904733312e-08</v>
+        <v>2.253434004920649e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.197094604094046e-07</v>
+        <v>2.247355087083327e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.463447419210907e-07</v>
+        <v>2.120254797557559e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54696614796019e-07</v>
+        <v>2.056435203433155e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>1.571409904433395e-07</v>
+        <v>1.652251728370357e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.594406409708116e-07</v>
+        <v>1.51344107595878e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>1.602595368041157e-07</v>
+        <v>1.258861952516235e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>1.531587676509879e-07</v>
+        <v>9.564773360128532e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39901477709411e-07</v>
+        <v>8.630382131767182e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>8.604777483285701e-08</v>
+        <v>7.335824357224865e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>5.392659072021644e-08</v>
+        <v>6.938433966936132e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.721141886112835e-08</v>
+        <v>6.953997387191735e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>5.248094530256344e-08</v>
+        <v>6.850820613528343e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>7.234416603625777e-08</v>
+        <v>6.574680569411106e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>8.024186812797834e-08</v>
+        <v>6.576060477641011e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>1.202526435849464e-07</v>
+        <v>6.614716814224565e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1.571476651967276e-07</v>
+        <v>7.346722839385695e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>1.620773903059684e-07</v>
+        <v>7.952079906987209e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>1.545575562507842e-07</v>
+        <v>8.307639144536033e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.382700342016509e-07</v>
+        <v>8.3152940767843e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.369117813057762e-07</v>
+        <v>8.101615406445343e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.215667192429574e-07</v>
+        <v>7.605917246241513e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.025399902198619e-07</v>
+        <v>6.452425048922508e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>9.298502651634177e-08</v>
+        <v>3.946237871357387e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>9.098646760824877e-08</v>
+        <v>3.289801616573821e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>8.935446176269421e-08</v>
+        <v>2.600805010604722e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>8.809118628829979e-08</v>
+        <v>1.964109081501684e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>8.226068223194198e-08</v>
+        <v>1.822835732951683e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>9.145243298164395e-08</v>
+        <v>1.777793097099775e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.046337109058703e-07</v>
+        <v>1.801890050498092e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>1.17784532775387e-07</v>
+        <v>1.70673026148754e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>1.32259808392963e-07</v>
+        <v>1.69299388548045e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.520531391779178e-07</v>
+        <v>1.69954058260603e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.702093356683195e-07</v>
+        <v>1.69231152302609e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.622934239079746e-07</v>
+        <v>1.658718192070955e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.625058844581074e-07</v>
+        <v>1.621160868809353e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>1.447306304474115e-07</v>
+        <v>1.615688141059965e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>1.421336324991801e-07</v>
+        <v>1.443767263586868e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.252577564814004e-07</v>
+        <v>1.464361063894719e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.198270939423608e-07</v>
+        <v>1.470811106824811e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.16709423156601e-07</v>
+        <v>1.455795299801651e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.478019021334837e-07</v>
+        <v>1.270196708626114e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.288820396526724e-07</v>
+        <v>1.091016566596911e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.354427567098007e-07</v>
+        <v>1.025845181129666e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>1.224242609812687e-07</v>
+        <v>9.972006989518328e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>1.144679829150452e-07</v>
+        <v>1.224721180985678e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.083403802821311e-07</v>
+        <v>2.099463202458462e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.015376464235362e-07</v>
+        <v>2.563971964645202e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>9.356677422372217e-08</v>
+        <v>2.707210731956882e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>9.453940795141526e-08</v>
+        <v>2.746693608998258e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>4.819464367346793e-08</v>
+        <v>2.784814285216485e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.976183932906504e-08</v>
+        <v>2.798116122503057e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.219067309484196e-08</v>
+        <v>2.668167812481843e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.719224017857085e-08</v>
+        <v>2.435120209807154e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>1.068255662689686e-08</v>
+        <v>1.491857123084845e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>8.653096381136825e-09</v>
+        <v>9.281559961717514e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>7.35510151623396e-09</v>
+        <v>8.065502314819572e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>7.549787336693331e-09</v>
+        <v>8.89985241224554e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>1.038290071415277e-08</v>
+        <v>1.222553714151323e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.90597896159796e-08</v>
+        <v>1.354238929742731e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>2.090161114340935e-08</v>
+        <v>2.024214633695809e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.796526857110546e-08</v>
+        <v>2.635716438296544e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.591732357440549e-08</v>
+        <v>2.713290963822228e-08</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.58269417038488e-08</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.306286253286749e-08</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.283580634558535e-08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.024058486830347e-08</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.704034594835834e-08</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.542281745589031e-08</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.507586560482332e-08</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.477964954297764e-08</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.455968644783329e-08</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.358269171347902e-08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.506786987308693e-08</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.721010335507744e-08</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.934002221993156e-08</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.167451283257081e-08</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.487349795072686e-08</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.779022193456345e-08</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.649749118174055e-08</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.64875990057538e-08</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.354452368265166e-08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.312042855856567e-08</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.034517403301686e-08</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.945361852695918e-08</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.894523687268228e-08</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.396174174274238e-08</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.088250102554443e-08</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.191074804563527e-08</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.979063829541878e-08</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.849040439835016e-08</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.748788218778438e-08</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.637657973374189e-08</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.507992039887922e-08</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.522763335824959e-08</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7.748069005620687e-09</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.170843596459711e-09</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.953987979221443e-09</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.75523980773207e-09</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.711665333450035e-09</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.385411713151036e-09</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.17590262278826e-09</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.205595696811531e-09</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.651700167361479e-09</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.020102623973685e-09</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.29941474565102e-09</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.824366727815803e-09</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.498853521270734e-09</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.688057553594191e-09</v>
+        <v>3.068731566278197e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>4.654804541283491e-09</v>
+        <v>3.923932160975717e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>6.987109706833451e-09</v>
+        <v>5.684796797291307e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>7.283422223950824e-09</v>
+        <v>8.075759292350897e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>7.55653939539518e-09</v>
+        <v>1.088941216404923e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>7.985383725155368e-09</v>
+        <v>2.252700309969724e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>7.219325977099793e-09</v>
+        <v>3.745850902588019e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.916606645096871e-09</v>
+        <v>1.018390220127261e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.879358818470033e-09</v>
+        <v>1.632345643720272e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>7.385380042975976e-09</v>
+        <v>1.764602255076754e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>5.730459520669288e-09</v>
+        <v>1.401045520313332e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>5.10251090935913e-09</v>
+        <v>7.1547309396001e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>5.89412621840702e-09</v>
+        <v>5.457964484999784e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>4.484197911585811e-09</v>
+        <v>6.893622845296736e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>4.580900222413179e-09</v>
+        <v>3.032390478914997e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>3.964934556358369e-09</v>
+        <v>2.182174801248804e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>4.058411429228114e-09</v>
+        <v>1.250124491585489e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>5.216164669717655e-09</v>
+        <v>6.435817489027662e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>4.282147105259788e-09</v>
+        <v>4.919939163932124e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>4.977179549159631e-09</v>
+        <v>4.940017527009463e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>9.457231674726285e-09</v>
+        <v>5.855228353603065e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.058083938208142e-08</v>
+        <v>7.396962671911089e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.401479265633932e-08</v>
+        <v>7.094898698880741e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>1.530875434113572e-08</v>
+        <v>1.499142039818403e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.340201301572159e-08</v>
+        <v>2.261010136283503e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>1.627183376537565e-08</v>
+        <v>5.391269322476295e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.481956750330011e-08</v>
+        <v>1.335188277659869e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>1.542145576240224e-08</v>
+        <v>1.292210022399143e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>1.510867297931643e-08</v>
+        <v>6.908979838534625e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>1.504191661669026e-08</v>
+        <v>3.541960912152364e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.419386854953322e-08</v>
+        <v>1.745450847341196e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.311137190558837e-08</v>
+        <v>1.772906210320007e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>1.560437594164989e-08</v>
+        <v>1.223679964197297e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.36243188492314e-08</v>
+        <v>1.067269483779767e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.31770714955055e-08</v>
+        <v>6.792875611035066e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>8.555480694908158e-09</v>
+        <v>7.652734849783051e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>8.71145037160769e-09</v>
+        <v>1.610363619796697e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>7.155283936973476e-09</v>
+        <v>1.04504642251944e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>8.734487919325617e-09</v>
+        <v>4.584363821542034e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.313340533617569e-08</v>
+        <v>3.882627284314334e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.33785407172751e-08</v>
+        <v>3.416757852509455e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.24484479394915e-08</v>
+        <v>4.212201733792998e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.112316208779257e-08</v>
+        <v>7.317590556604113e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.161347819140479e-08</v>
+        <v>1.679052620641057e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.11404007921156e-08</v>
+        <v>1.87387926097804e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>7.146196680887812e-09</v>
+        <v>2.14005789074063e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>9.070230559516605e-09</v>
+        <v>2.197853086712361e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.304451057179597e-08</v>
+        <v>1.940141966981034e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>1.846124431340564e-08</v>
+        <v>1.66812432442375e-07</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>2.480219077839209e-08</v>
+        <v>1.230231279743743e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.112223624478055e-08</v>
+        <v>1.10161319086033e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>8.46976423141776e-08</v>
+        <v>1.031879408547346e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>2.298403335629244e-07</v>
+        <v>1.03497696313291e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>3.677075303460707e-07</v>
+        <v>9.967256001967765e-08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.960602424933297e-07</v>
+        <v>9.857705769909539e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>3.135322196217246e-07</v>
+        <v>1.107098205869882e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.596312552362673e-07</v>
+        <v>1.436493116093207e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>1.216817359520182e-07</v>
+        <v>2.246731519321053e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>1.535822793459675e-07</v>
+        <v>3.370182700646936e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>6.750475550987125e-08</v>
+        <v>4.36140888938457e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>4.852830649362207e-08</v>
+        <v>5.696050480368429e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>2.774988983483877e-08</v>
+        <v>7.007299644366859e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>1.423218809400966e-08</v>
+        <v>7.516406126819434e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.087206828591712e-08</v>
+        <v>9.223413235252448e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.090476881660989e-08</v>
+        <v>1.111345687460482e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.290127429563187e-08</v>
+        <v>1.115548892956777e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.626725102765765e-08</v>
+        <v>1.235896540092004e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.557898182797165e-08</v>
+        <v>1.250366201664276e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>3.28496500596556e-08</v>
+        <v>1.234502953512211e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>4.944937898580673e-08</v>
+        <v>1.206357382807508e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>1.174946859854578e-07</v>
+        <v>1.204066264671194e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>2.898726501353821e-07</v>
+        <v>1.137126522135272e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>2.795144326284928e-07</v>
+        <v>1.10364362288737e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>1.489016354392149e-07</v>
+        <v>8.900296238984635e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>7.605358535936391e-08</v>
+        <v>8.168686423435135e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>3.73380398943201e-08</v>
+        <v>6.806150598910644e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>3.778965197807524e-08</v>
+        <v>5.190329528197657e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>2.598453418149474e-08</v>
+        <v>4.692530808471895e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>2.258218802095452e-08</v>
+        <v>3.995791422768623e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.434524431767915e-08</v>
+        <v>3.783378670446535e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.613257839600841e-08</v>
+        <v>3.792032877399666e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>3.382279261599726e-08</v>
+        <v>3.738471562816374e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>2.178674033552663e-08</v>
+        <v>3.594377962783205e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>9.522025500585841e-09</v>
+        <v>3.599151854077734e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>8.035438752398465e-09</v>
+        <v>3.623340870026037e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>7.019084453869009e-09</v>
+        <v>4.028290879436335e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>8.5896490592089e-09</v>
+        <v>4.365234746790231e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>1.481259510300815e-08</v>
+        <v>4.565144652928697e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>3.392327094834363e-08</v>
+        <v>4.574864731086839e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>3.780788860566502e-08</v>
+        <v>4.461925540115176e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>4.300103901651504e-08</v>
+        <v>4.19693191120202e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>4.408130946908441e-08</v>
+        <v>3.566837124252578e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.883854120976333e-08</v>
+        <v>2.189533438889545e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>3.327099723893454e-08</v>
+        <v>1.8287049461762e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>2.444863373078694e-08</v>
+        <v>1.448150361373243e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.181110824808434e-08</v>
+        <v>1.097555844892937e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>2.04143901045538e-08</v>
+        <v>1.020792541228445e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>2.045220076695974e-08</v>
+        <v>9.969389618669679e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.966155252219233e-08</v>
+        <v>1.011585345161345e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.93750872752537e-08</v>
+        <v>9.589153546005236e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>2.159873563183874e-08</v>
+        <v>9.515836033900129e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.785746025809379e-08</v>
+        <v>9.554183333149582e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>4.319260110368291e-08</v>
+        <v>9.514526669310344e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>6.45515710122544e-08</v>
+        <v>9.333123927217989e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.322299374460462e-08</v>
+        <v>9.128462902858047e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.082968889665078e-07</v>
+        <v>9.104493865201145e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.329234015132426e-07</v>
+        <v>8.141352564937483e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.423685121407303e-07</v>
+        <v>8.261318147786662e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.74267938751387e-07</v>
+        <v>8.29987954100885e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>2.092187570163725e-07</v>
+        <v>8.224511225322169e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>2.097375995945003e-07</v>
+        <v>7.189110590043193e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>2.318090343840299e-07</v>
+        <v>6.186307802612201e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>2.340814757040924e-07</v>
+        <v>5.826969770810055e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>2.308663791389909e-07</v>
+        <v>5.667231384993988e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>2.253434004920649e-07</v>
+        <v>6.970202904733312e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>2.247355087083327e-07</v>
+        <v>1.197094604094046e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>2.120254797557559e-07</v>
+        <v>1.463447419210907e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>2.056435203433155e-07</v>
+        <v>1.54696614796019e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.652251728370357e-07</v>
+        <v>1.571409904433395e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.51344107595878e-07</v>
+        <v>1.594406409708116e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>1.258861952516235e-07</v>
+        <v>1.602595368041157e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>9.564773360128532e-08</v>
+        <v>1.531587676509879e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>8.630382131767182e-08</v>
+        <v>1.39901477709411e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>7.335824357224865e-08</v>
+        <v>8.604777483285701e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>6.938433966936132e-08</v>
+        <v>5.392659072021644e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>6.953997387191735e-08</v>
+        <v>4.721141886112835e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>6.850820613528343e-08</v>
+        <v>5.248094530256344e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.574680569411106e-08</v>
+        <v>7.234416603625777e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>6.576060477641011e-08</v>
+        <v>8.024186812797834e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>6.614716814224565e-08</v>
+        <v>1.202526435849464e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>7.346722839385695e-08</v>
+        <v>1.571476651967276e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>7.952079906987209e-08</v>
+        <v>1.620773903059684e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>8.307639144536033e-08</v>
+        <v>1.545575562507842e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>8.3152940767843e-08</v>
+        <v>1.382700342016509e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>8.101615406445343e-08</v>
+        <v>1.369117813057762e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>7.605917246241513e-08</v>
+        <v>1.215667192429574e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>6.452425048922508e-08</v>
+        <v>1.025399902198619e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>3.946237871357387e-08</v>
+        <v>9.298502651634177e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>3.289801616573821e-08</v>
+        <v>9.098646760824877e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>2.600805010604722e-08</v>
+        <v>8.935446176269421e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>1.964109081501684e-08</v>
+        <v>8.809118628829979e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>1.822835732951683e-08</v>
+        <v>8.226068223194198e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.777793097099775e-08</v>
+        <v>9.145243298164395e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.801890050498092e-08</v>
+        <v>1.046337109058703e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.70673026148754e-08</v>
+        <v>1.17784532775387e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.69299388548045e-08</v>
+        <v>1.32259808392963e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.69954058260603e-08</v>
+        <v>1.520531391779178e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.69231152302609e-08</v>
+        <v>1.702093356683195e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.658718192070955e-08</v>
+        <v>1.622934239079746e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.621160868809353e-08</v>
+        <v>1.625058844581074e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.615688141059965e-08</v>
+        <v>1.447306304474115e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.443767263586868e-08</v>
+        <v>1.421336324991801e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.464361063894719e-08</v>
+        <v>1.252577564814004e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.470811106824811e-08</v>
+        <v>1.198270939423608e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.455795299801651e-08</v>
+        <v>1.16709423156601e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.270196708626114e-08</v>
+        <v>1.478019021334837e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.091016566596911e-08</v>
+        <v>1.288820396526724e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.025845181129666e-08</v>
+        <v>1.354427567098007e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>9.972006989518328e-09</v>
+        <v>1.224242609812687e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.224721180985678e-08</v>
+        <v>1.144679829150452e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.099463202458462e-08</v>
+        <v>1.083403802821311e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.563971964645202e-08</v>
+        <v>1.015376464235362e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.707210731956882e-08</v>
+        <v>9.356677422372217e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>2.746693608998258e-08</v>
+        <v>9.453940795141526e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.784814285216485e-08</v>
+        <v>4.819464367346793e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>2.798116122503057e-08</v>
+        <v>1.976183932906504e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>2.668167812481843e-08</v>
+        <v>1.219067309484196e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>2.435120209807154e-08</v>
+        <v>1.719224017857085e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.491857123084845e-08</v>
+        <v>1.068255662689686e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>9.281559961717514e-09</v>
+        <v>8.653096381136825e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>8.065502314819572e-09</v>
+        <v>7.35510151623396e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>8.89985241224554e-09</v>
+        <v>7.549787336693331e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.222553714151323e-08</v>
+        <v>1.038290071415277e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.354238929742731e-08</v>
+        <v>1.90597896159796e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>2.024214633695809e-08</v>
+        <v>2.090161114340935e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>2.635716438296544e-08</v>
+        <v>1.796526857110546e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>2.713290963822228e-08</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.58269417038488e-08</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.306286253286749e-08</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.283580634558535e-08</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.024058486830347e-08</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.704034594835834e-08</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.542281745589031e-08</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.507586560482332e-08</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.477964954297764e-08</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.455968644783329e-08</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.358269171347902e-08</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.506786987308693e-08</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.721010335507744e-08</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.934002221993156e-08</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.167451283257081e-08</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.487349795072686e-08</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.779022193456345e-08</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.649749118174055e-08</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.64875990057538e-08</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.354452368265166e-08</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.312042855856567e-08</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.034517403301686e-08</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.945361852695918e-08</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.894523687268228e-08</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.396174174274238e-08</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.088250102554443e-08</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.191074804563527e-08</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.979063829541878e-08</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.849040439835016e-08</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.748788218778438e-08</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.637657973374189e-08</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.507992039887922e-08</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.522763335824959e-08</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7.748069005620687e-09</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.170843596459711e-09</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.953987979221443e-09</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.75523980773207e-09</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.711665333450035e-09</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.385411713151036e-09</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.17590262278826e-09</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.205595696811531e-09</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.651700167361479e-09</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.020102623973685e-09</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.29941474565102e-09</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.824366727815803e-09</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.498853521270734e-09</v>
+        <v>1.591732357440549e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>3.068731566278197e-08</v>
+        <v>2642166580.757056</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>3.923932160975717e-08</v>
+        <v>4537258472.481721</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684796797291307e-08</v>
+        <v>6349344828.898877</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>8.075759292350897e-08</v>
+        <v>6322850885.987913</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.088941216404923e-07</v>
+        <v>7763384677.08816</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.252700309969724e-07</v>
+        <v>7404271114.455958</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>3.745850902588019e-07</v>
+        <v>7123990343.517315</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.018390220127261e-06</v>
+        <v>7740045698.397458</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.632345643720272e-06</v>
+        <v>5486065801.886308</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.764602255076754e-06</v>
+        <v>6912532372.360168</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.401045520313332e-06</v>
+        <v>7666342378.49891</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>7.1547309396001e-07</v>
+        <v>4901489512.564062</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>5.457964484999784e-07</v>
+        <v>5420554549.564405</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>6.893622845296736e-07</v>
+        <v>4083405127.958048</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3.032390478914997e-07</v>
+        <v>4398373523.479262</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>2.182174801248804e-07</v>
+        <v>3716627786.080235</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.250124491585489e-07</v>
+        <v>3842858565.563703</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>6.435817489027662e-08</v>
+        <v>4862711077.484807</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>4.919939163932124e-08</v>
+        <v>4013276743.134365</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4.940017527009463e-08</v>
+        <v>4779929283.664403</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>5.855228353603065e-08</v>
+        <v>8595964365.966719</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>7.396962671911089e-08</v>
+        <v>10016131365.37927</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>7.094898698880741e-08</v>
+        <v>13956726500.31192</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>1.499142039818403e-07</v>
+        <v>14768481268.46601</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>2.261010136283503e-07</v>
+        <v>13890526892.2411</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>5.391269322476295e-07</v>
+        <v>15257089114.14439</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.335188277659869e-06</v>
+        <v>14889287591.45777</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.292210022399143e-06</v>
+        <v>14739812166.80357</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>6.908979838534625e-07</v>
+        <v>14458561578.85678</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>3.541960912152364e-07</v>
+        <v>14642283091.04514</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>1.745450847341196e-07</v>
+        <v>13690767644.18608</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.772906210320007e-07</v>
+        <v>12883823896.16023</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.223679964197297e-07</v>
+        <v>14535781628.69454</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.067269483779767e-07</v>
+        <v>12901201919.68543</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.792875611035066e-08</v>
+        <v>12316202886.31799</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>7.652734849783051e-08</v>
+        <v>8279630740.254572</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.610363619796697e-07</v>
+        <v>8205673099.640892</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04504642251944e-07</v>
+        <v>7730409130.996118</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>4.584363821542034e-08</v>
+        <v>8257592999.628575</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.882627284314334e-08</v>
+        <v>12305171513.0808</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>3.416757852509455e-08</v>
+        <v>12634656177.13505</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4.212201733792998e-08</v>
+        <v>11580442319.52233</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>7.317590556604113e-08</v>
+        <v>10394707790.11792</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.679052620641057e-07</v>
+        <v>10791454465.2193</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.87387926097804e-07</v>
+        <v>10418263927.69885</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>2.14005789074063e-07</v>
+        <v>6626519991.737405</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.197853086712361e-07</v>
+        <v>8478495528.295728</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.940141966981034e-07</v>
+        <v>12134157870.94521</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.66812432442375e-07</v>
+        <v>17285274035.99228</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.230231279743743e-07</v>
+        <v>23182222741.4486</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.10161319086033e-07</v>
+        <v>47588848597.65437</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.031879408547346e-07</v>
+        <v>78847147159.10127</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>1.03497696313291e-07</v>
+        <v>214621583143.6486</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>9.967256001967765e-08</v>
+        <v>343044089710.315</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>9.857705769909539e-08</v>
+        <v>368949560382.8367</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.107098205869882e-07</v>
+        <v>292227305150.3002</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>1.436493116093207e-07</v>
+        <v>149111055902.7533</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>2.246731519321053e-07</v>
+        <v>113762108841.6679</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>3.370182700646936e-07</v>
+        <v>143304612468.2196</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>4.36140888938457e-07</v>
+        <v>62910611078.41111</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>5.696050480368429e-07</v>
+        <v>45110669269.60144</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>7.007299644366859e-07</v>
+        <v>25742898213.84376</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>7.516406126819434e-07</v>
+        <v>13278267033.70651</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>9.223413235252448e-07</v>
+        <v>10160261574.73558</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.111345687460482e-06</v>
+        <v>10267779222.67639</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.115548892956777e-06</v>
+        <v>12014241240.58689</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.235896540092004e-06</v>
+        <v>15520897902.36653</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.250366201664276e-06</v>
+        <v>14910586680.43777</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.234502953512211e-06</v>
+        <v>29987628893.27805</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.206357382807508e-06</v>
+        <v>46742753262.12356</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.204066264671194e-06</v>
+        <v>109663181452.0134</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.137126522135272e-06</v>
+        <v>270462824200.1844</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.10364362288737e-06</v>
+        <v>260935210916.5444</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>8.900296238984635e-07</v>
+        <v>138850128127.2402</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>8.168686423435135e-07</v>
+        <v>71303490387.37773</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>6.806150598910644e-07</v>
+        <v>34824248036.10347</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>5.190329528197657e-07</v>
+        <v>35379598414.80594</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>4.692530808471895e-07</v>
+        <v>24728319262.25171</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>3.995791422768623e-07</v>
+        <v>21054977765.13715</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>3.783378670446535e-07</v>
+        <v>13350321229.35581</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3.792032877399666e-07</v>
+        <v>15029808052.87319</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>3.738471562816374e-07</v>
+        <v>31488835930.32599</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3.594377962783205e-07</v>
+        <v>20275365373.57656</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>3.599151854077734e-07</v>
+        <v>8848798492.218189</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>3.623340870026037e-07</v>
+        <v>7483477056.531812</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>4.028290879436335e-07</v>
+        <v>6549412977.042895</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>4.365234746790231e-07</v>
+        <v>7947800070.68651</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>4.565144652928697e-07</v>
+        <v>13811963346.81525</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>4.574864731086839e-07</v>
+        <v>31579870223.94293</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>4.461925540115176e-07</v>
+        <v>35160095524.57996</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>4.19693191120202e-07</v>
+        <v>40163555830.72784</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>3.566837124252578e-07</v>
+        <v>41005300669.2631</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.189533438889545e-07</v>
+        <v>36052378582.3282</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.8287049461762e-07</v>
+        <v>31044313798.35361</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.448150361373243e-07</v>
+        <v>22769441092.83065</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.097555844892937e-07</v>
+        <v>20366509664.37069</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.020792541228445e-07</v>
+        <v>19074685253.64632</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>9.969389618669679e-08</v>
+        <v>18923294055.99015</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.011585345161345e-07</v>
+        <v>18369060423.69453</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>9.589153546005236e-08</v>
+        <v>18037707877.1276</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>9.515836033900129e-08</v>
+        <v>20126336506.79827</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>9.554183333149582e-08</v>
+        <v>26000001192.93058</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>9.514526669310344e-08</v>
+        <v>40254473919.98602</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>9.333123927217989e-08</v>
+        <v>60119169412.56151</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>9.128462902858047e-08</v>
+        <v>77581600829.60631</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>9.104493865201145e-08</v>
+        <v>100826810972.4642</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>8.141352564937483e-08</v>
+        <v>123890503720.5555</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>8.261318147786662e-08</v>
+        <v>132649133290.8143</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>8.29987954100885e-08</v>
+        <v>162577910285.3416</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>8.224511225322169e-08</v>
+        <v>194975156454.6458</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>7.189110590043193e-08</v>
+        <v>195442243357.5931</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>6.186307802612201e-08</v>
+        <v>215869454578.4231</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>5.826969770810055e-08</v>
+        <v>218046271399.6204</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>5.667231384993988e-08</v>
+        <v>215106373726.8747</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>6.970202904733312e-08</v>
+        <v>210029575340.6421</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.197094604094046e-07</v>
+        <v>209110495912.1727</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.463447419210907e-07</v>
+        <v>197495654423.4936</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54696614796019e-07</v>
+        <v>191613558262.3568</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>1.571409904433395e-07</v>
+        <v>153917583962.2858</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>1.594406409708116e-07</v>
+        <v>140934997830.2074</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>1.602595368041157e-07</v>
+        <v>117415706659.6466</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>1.531587676509879e-07</v>
+        <v>89101421847.63293</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39901477709411e-07</v>
+        <v>80382297136.62003</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>8.604777483285701e-08</v>
+        <v>68436775467.84634</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>5.392659072021644e-08</v>
+        <v>64656460554.68279</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.721141886112835e-08</v>
+        <v>64846999533.1805</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>5.248094530256344e-08</v>
+        <v>63980668978.0428</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>7.234416603625777e-08</v>
+        <v>61280897558.12435</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>8.024186812797834e-08</v>
+        <v>61380262946.91605</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>1.202526435849464e-07</v>
+        <v>61583512240.33984</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>1.571476651967276e-07</v>
+        <v>68466064954.70287</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.620773903059684e-07</v>
+        <v>74041351979.08418</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.545575562507842e-07</v>
+        <v>77348177025.16685</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.382700342016509e-07</v>
+        <v>77569566839.99477</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.369117813057762e-07</v>
+        <v>75412493405.11354</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.215667192429574e-07</v>
+        <v>70829691117.46355</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.025399902198619e-07</v>
+        <v>60156895191.07</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>9.298502651634177e-08</v>
+        <v>36746310042.81001</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>9.098646760824877e-08</v>
+        <v>30560890248.15991</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>8.935446176269421e-08</v>
+        <v>24267576017.22788</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>8.809118628829979e-08</v>
+        <v>18331151909.68191</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>8.226068223194198e-08</v>
+        <v>16952509155.23575</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>9.145243298164395e-08</v>
+        <v>16475021841.59763</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.046337109058703e-07</v>
+        <v>16772230212.58201</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>1.17784532775387e-07</v>
+        <v>15904186187.87029</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>1.32259808392963e-07</v>
+        <v>15855545296.80312</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.520531391779178e-07</v>
+        <v>15862673078.91005</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.702093356683195e-07</v>
+        <v>15783238934.96068</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.622934239079746e-07</v>
+        <v>15443286008.54474</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.625058844581074e-07</v>
+        <v>15035552530.63538</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>1.447306304474115e-07</v>
+        <v>14989759539.30199</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>1.421336324991801e-07</v>
+        <v>13513365015.33166</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.252577564814004e-07</v>
+        <v>13631157218.49644</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.198270939423608e-07</v>
+        <v>13740060722.17816</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.16709423156601e-07</v>
+        <v>13562355930.26568</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.478019021334837e-07</v>
+        <v>11845289979.28493</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.288820396526724e-07</v>
+        <v>10231205696.06726</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.354427567098007e-07</v>
+        <v>9545964028.799444</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>1.224242609812687e-07</v>
+        <v>9279761874.701651</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.144679829150452e-07</v>
+        <v>11384253685.71817</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.083403802821311e-07</v>
+        <v>19682512399.24315</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.015376464235362e-07</v>
+        <v>23834195515.4904</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>9.356677422372217e-08</v>
+        <v>25210820239.58827</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>9.453940795141526e-08</v>
+        <v>25526844053.97605</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>4.819464367346793e-08</v>
+        <v>25904954486.14293</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.976183932906504e-08</v>
+        <v>26068095483.12021</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.219067309484196e-08</v>
+        <v>24825593902.84417</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.719224017857085e-08</v>
+        <v>22722700063.41082</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>1.068255662689686e-08</v>
+        <v>13897057746.77952</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>8.653096381136825e-09</v>
+        <v>8639855004.641075</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>7.35510151623396e-09</v>
+        <v>7521163341.837353</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>7.549787336693331e-09</v>
+        <v>8300989395.620704</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>1.038290071415277e-08</v>
+        <v>11418870514.355</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.90597896159796e-08</v>
+        <v>12584266453.90266</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>2.090161114340935e-08</v>
+        <v>18798413108.91558</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.796526857110546e-08</v>
+        <v>24691727763.91468</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.591732357440549e-08</v>
+        <v>25252741820.23509</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>24051128456.66745</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>21435851534.81156</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21276421620.44884</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>18859062600.44784</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15860741413.48622</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>14409462876.145</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>14154672886.52552</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>13812433950.09483</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>13594881008.98822</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12709957142.49437</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>14073215582.34008</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>16079404217.00611</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18031460571.83548</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>20154440369.82977</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>23151697559.60751</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>25908650994.31705</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>24695385590.28416</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>24617779854.31485</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>21945141786.61876</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>21544672484.71603</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>18988864807.60588</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>18150557480.6512</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>17679988879.03293</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22330549232.01986</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>19444335896.22361</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20359740527.77756</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18447181756.66916</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>17237489029.72816</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16291503813.06701</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15222825612.84474</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>14044048957.02487</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>14217496663.83682</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7240689272.968234</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2950863460.077393</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1818344453.010306</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2567112888.054657</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1594168326.282109</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1287972494.08295</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1085700778.815353</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1099791860.644996</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1542233965.346451</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2808560018.296935</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3069523411.428211</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2628724796.476395</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2323093684.701859</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2642166580.757056</v>
+        <v>3.445653199825332e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>4537258472.481721</v>
+        <v>4.263664908900139e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6349344828.898877</v>
+        <v>6.133851877344638e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6322850885.987913</v>
+        <v>8.838987933528051e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>7763384677.08816</v>
+        <v>1.189870722261579e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>7404271114.455958</v>
+        <v>2.394250687392245e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>7123990343.517315</v>
+        <v>3.98724332107502e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7740045698.397458</v>
+        <v>1.065612799304415e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5486065801.886308</v>
+        <v>1.701979836124617e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6912532372.360168</v>
+        <v>1.849931492552455e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>7666342378.49891</v>
+        <v>1.463649247782117e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4901489512.564062</v>
+        <v>7.462058427860189e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5420554549.564405</v>
+        <v>5.74198636920643e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>4083405127.958048</v>
+        <v>7.239630942382979e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>4398373523.479262</v>
+        <v>3.227422180083769e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>3716627786.080235</v>
+        <v>2.279899307497732e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3842858565.563703</v>
+        <v>1.32302548650045e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4862711077.484807</v>
+        <v>7.084667200422904e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>4013276743.134365</v>
+        <v>5.402956397053464e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>4779929283.664403</v>
+        <v>5.36369106689717e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>8595964365.966719</v>
+        <v>6.547778577164892e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>10016131365.37927</v>
+        <v>8.158658954332531e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>13956726500.31192</v>
+        <v>7.814110897576797e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>14768481268.46601</v>
+        <v>1.598333504002313e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>13890526892.2411</v>
+        <v>2.471177322199581e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>15257089114.14439</v>
+        <v>5.655800661108189e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>14889287591.45777</v>
+        <v>1.411964997803042e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>14739812166.80357</v>
+        <v>1.373036391685828e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>14458561578.85678</v>
+        <v>7.203647095688949e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>14642283091.04514</v>
+        <v>3.758778161176797e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>13690767644.18608</v>
+        <v>1.863867585996679e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>12883823896.16023</v>
+        <v>1.871297183630494e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>14535781628.69454</v>
+        <v>1.265058650959893e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>12901201919.68543</v>
+        <v>1.160738852675359e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>12316202886.31799</v>
+        <v>6.929113026994656e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>8279630740.254572</v>
+        <v>8.285999908596418e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>8205673099.640892</v>
+        <v>1.735087631150214e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>7730409130.996118</v>
+        <v>1.121237538666754e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>8257592999.628575</v>
+        <v>4.950612617850874e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>12305171513.0808</v>
+        <v>4.365126534544459e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>12634656177.13505</v>
+        <v>3.780294998012198e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>11580442319.52233</v>
+        <v>4.462034239846671e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>10394707790.11792</v>
+        <v>7.989393267152415e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>10791454465.2193</v>
+        <v>1.789684835972765e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>10418263927.69885</v>
+        <v>2.000087985899944e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>6626519991.737405</v>
+        <v>2.292038962402452e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>8478495528.295728</v>
+        <v>2.3288270266798e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>12134157870.94521</v>
+        <v>2.037338482018584e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>17285274035.99228</v>
+        <v>1.787504415578855e-07</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>23182222741.4486</v>
+        <v>1.326560986383378e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>47588848597.65437</v>
+        <v>1.205371707971191e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>78847147159.10127</v>
+        <v>1.117771019743006e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>214621583143.6486</v>
+        <v>1.109584127388028e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>343044089710.315</v>
+        <v>1.075705450821194e-07</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>368949560382.8367</v>
+        <v>1.057422415908587e-07</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>292227305150.3002</v>
+        <v>1.187479364252702e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>149111055902.7533</v>
+        <v>1.545155113249327e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>113762108841.6679</v>
+        <v>2.397477858610886e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>143304612468.2196</v>
+        <v>3.537058234590728e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>62910611078.41111</v>
+        <v>4.596540286746929e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>45110669269.60144</v>
+        <v>5.97783744040789e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>25742898213.84376</v>
+        <v>7.346524751767818e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>13278267033.70651</v>
+        <v>7.86715681432807e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>10160261574.73558</v>
+        <v>9.674196549063326e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>10267779222.67639</v>
+        <v>1.161319023515001e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>12014241240.58689</v>
+        <v>1.167670134908793e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>15520897902.36653</v>
+        <v>1.289746421906297e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>14910586680.43777</v>
+        <v>1.306214961842898e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>29987628893.27805</v>
+        <v>1.291100421935471e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>46742753262.12356</v>
+        <v>1.261371742268026e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>109663181452.0134</v>
+        <v>1.25523105414476e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>270462824200.1844</v>
+        <v>1.185948374937984e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>260935210916.5444</v>
+        <v>1.153746761692039e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>138850128127.2402</v>
+        <v>9.310761342461577e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>71303490387.37773</v>
+        <v>8.553339009451316e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>34824248036.10347</v>
+        <v>7.131790396817013e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>35379598414.80594</v>
+        <v>5.432154829760622e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>24728319262.25171</v>
+        <v>4.921088154545651e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>21054977765.13715</v>
+        <v>4.204101968373774e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>13350321229.35581</v>
+        <v>3.975172203196972e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>15029808052.87319</v>
+        <v>3.993391129937108e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>31488835930.32599</v>
+        <v>3.942802758744251e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>20275365373.57656</v>
+        <v>3.777553585940309e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>8848798492.218189</v>
+        <v>3.792641127741082e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>7483477056.531812</v>
+        <v>3.821796353739492e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>6549412977.042895</v>
+        <v>4.217116092830127e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>7947800070.68651</v>
+        <v>4.583157008155841e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>13811963346.81525</v>
+        <v>4.788600414149733e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>31579870223.94293</v>
+        <v>4.817577382202261e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>35160095524.57996</v>
+        <v>4.67188455102535e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>40163555830.72784</v>
+        <v>4.395354032264422e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>41005300669.2631</v>
+        <v>3.751337266321608e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>36052378582.3282</v>
+        <v>2.308271834357867e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>31044313798.35361</v>
+        <v>1.925554117353305e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>22769441092.83065</v>
+        <v>1.544006681441259e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>20366509664.37069</v>
+        <v>1.173297972958378e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>19074685253.64632</v>
+        <v>1.094817214998011e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>18923294055.99015</v>
+        <v>1.067341021592585e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>18369060423.69453</v>
+        <v>1.086134212169241e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>18037707877.1276</v>
+        <v>1.028012913963481e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>20126336506.79827</v>
+        <v>1.024723850919325e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>26000001192.93058</v>
+        <v>1.031891567520885e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>40254473919.98602</v>
+        <v>1.018495335400033e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>60119169412.56151</v>
+        <v>9.942220160586688e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>77581600829.60631</v>
+        <v>9.650754580756141e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>100826810972.4642</v>
+        <v>9.48907706977093e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>123890503720.5555</v>
+        <v>8.872677109267511e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>132649133290.8143</v>
+        <v>8.913271256446008e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>162577910285.3416</v>
+        <v>9.060960303681268e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>194975156454.6458</v>
+        <v>8.909374643636567e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>195442243357.5931</v>
+        <v>7.788100867598412e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>215869454578.4231</v>
+        <v>6.794085473688089e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>218046271399.6204</v>
+        <v>6.344866765127977e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>215106373726.8747</v>
+        <v>6.147247612529068e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>210029575340.6421</v>
+        <v>7.631384263330311e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>209110495912.1727</v>
+        <v>1.294904246297051e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>197495654423.4936</v>
+        <v>1.556313599155799e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>191613558262.3568</v>
+        <v>1.650879387976352e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>153917583962.2858</v>
+        <v>1.66659258288011e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>140934997830.2074</v>
+        <v>1.70749707525023e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>117415706659.6466</v>
+        <v>1.710775998209673e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>89101421847.63293</v>
+        <v>1.627749731956522e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>80382297136.62003</v>
+        <v>1.496935785279123e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>68436775467.84634</v>
+        <v>9.231145828822123e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>64656460554.68279</v>
+        <v>5.818943180876165e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>64846999533.1805</v>
+        <v>5.164626587960818e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>63980668978.0428</v>
+        <v>5.650863450751942e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>61280897558.12435</v>
+        <v>7.828416623399889e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>61380262946.91605</v>
+        <v>8.629092994143383e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>61583512240.33984</v>
+        <v>1.279924485362187e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>68466064954.70287</v>
+        <v>1.66909477941862e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>74041351979.08418</v>
+        <v>1.732528676592453e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>77348177025.16685</v>
+        <v>1.641791740983843e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>77569566839.99477</v>
+        <v>1.455914016121066e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>75412493405.11354</v>
+        <v>1.284178643224412e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>70829691117.46355</v>
+        <v>1.084385568603193e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>60156895191.07</v>
+        <v>9.96014935793862e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>36746310042.81001</v>
+        <v>9.8914272741178e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>30560890248.15991</v>
+        <v>9.431324833396335e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>24267576017.22788</v>
+        <v>9.374772501520305e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>18331151909.68191</v>
+        <v>9.013908590826497e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>16952509155.23575</v>
+        <v>9.841987535766902e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>16475021841.59763</v>
+        <v>1.12316312072078e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>16772230212.58201</v>
+        <v>1.254234921417148e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>15904186187.87029</v>
+        <v>1.405086316499111e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>15855545296.80312</v>
+        <v>1.607180117812788e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>15862673078.91005</v>
+        <v>1.757771019594605e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>15783238934.96068</v>
+        <v>1.706507357566183e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>15443286008.54474</v>
+        <v>1.530671992089464e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>15035552530.63538</v>
+        <v>1.504479304460738e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>14989759539.30199</v>
+        <v>1.330022371241085e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>13513365015.33166</v>
+        <v>1.273130703985175e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>13631157218.49644</v>
+        <v>1.241731129624166e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>13740060722.17816</v>
+        <v>1.559820911570667e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>13562355930.26568</v>
+        <v>1.367164215801566e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>11845289979.28493</v>
+        <v>1.431223795428698e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>10231205696.06726</v>
+        <v>1.298820940025179e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>9545964028.799444</v>
+        <v>1.215765429492255e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>9279761874.701651</v>
+        <v>1.153653927413818e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>11384253685.71817</v>
+        <v>1.066426197930947e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>19682512399.24315</v>
+        <v>9.952364093241253e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>23834195515.4904</v>
+        <v>1.014540531383557e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>25210820239.58827</v>
+        <v>5.235343921433718e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>25526844053.97605</v>
+        <v>2.159303183355736e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>25904954486.14293</v>
+        <v>1.300745565422897e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>26068095483.12021</v>
+        <v>1.872444353782101e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>24825593902.84417</v>
+        <v>1.165910531372265e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>22722700063.41082</v>
+        <v>9.327273171580029e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>13897057746.77952</v>
+        <v>7.818858520919975e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>8639855004.641075</v>
+        <v>7.874641914320458e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>7521163341.837353</v>
+        <v>1.143288940162979e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>8300989395.620704</v>
+        <v>2.073088510543554e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>11418870514.355</v>
+        <v>2.277851816830394e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>12584266453.90266</v>
+        <v>1.949754084501489e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>18798413108.91558</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>24691727763.91468</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>25252741820.23509</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>24051128456.66745</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>21435851534.81156</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>21276421620.44884</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>18859062600.44784</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>15860741413.48622</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>14409462876.145</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>14154672886.52552</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>13812433950.09483</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>13594881008.98822</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>12709957142.49437</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>14073215582.34008</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>16079404217.00611</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>18031460571.83548</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>20154440369.82977</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>23151697559.60751</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>25908650994.31705</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>24695385590.28416</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>24617779854.31485</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21945141786.61876</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21544672484.71603</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>18988864807.60588</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>18150557480.6512</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>17679988879.03293</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>22330549232.01986</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>19444335896.22361</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>20359740527.77756</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>18447181756.66916</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>17237489029.72816</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16291503813.06701</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>15222825612.84474</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>14044048957.02487</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>14217496663.83682</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7240689272.968234</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2950863460.077393</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1818344453.010306</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2567112888.054657</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1594168326.282109</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1287972494.08295</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1085700778.815353</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1099791860.644996</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1542233965.346451</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2808560018.296935</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3069523411.428211</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2628724796.476395</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2323093684.701859</v>
+        <v>1.727285204563343e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.445653199825332e-08</v>
+        <v>1.803022870742572e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>4.263664908900139e-08</v>
+        <v>2.64485133184422e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.133851877344638e-08</v>
+        <v>4.376927399899745e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>8.838987933528051e-08</v>
+        <v>7.3015471048891e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.189870722261579e-07</v>
+        <v>1.068854262591756e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2.394250687392245e-07</v>
+        <v>2.195905916041219e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>3.98724332107502e-07</v>
+        <v>3.869255374708646e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.065612799304415e-06</v>
+        <v>1.040384880109924e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701979836124617e-06</v>
+        <v>1.666341447808099e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.849931492552455e-06</v>
+        <v>1.836151657147194e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.463649247782117e-06</v>
+        <v>1.444516290786119e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>7.462058427860189e-07</v>
+        <v>7.389716299070049e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5.74198636920643e-07</v>
+        <v>5.572904083074779e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>7.239630942382979e-07</v>
+        <v>7.148545725852918e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>3.227422180083769e-07</v>
+        <v>3.080556738594139e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.279899307497732e-07</v>
+        <v>2.178647946868835e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.32302548650045e-07</v>
+        <v>1.144507275957187e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>7.084667200422904e-08</v>
+        <v>5.729509541058432e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>5.402956397053464e-08</v>
+        <v>4.340224849816939e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>5.36369106689717e-08</v>
+        <v>4.074349570852939e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>6.547778577164892e-08</v>
+        <v>5.565687914589583e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>8.158658954332531e-08</v>
+        <v>7.739628002445306e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>7.814110897576797e-08</v>
+        <v>6.579208918440062e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.598333504002313e-07</v>
+        <v>1.386381577864566e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>2.471177322199581e-07</v>
+        <v>2.188856943095826e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>5.655800661108189e-07</v>
+        <v>5.603246065043516e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.411964997803042e-06</v>
+        <v>1.403530525418733e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.373036391685828e-06</v>
+        <v>1.355491019818853e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>7.203647095688949e-07</v>
+        <v>7.15994878023715e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.758778161176797e-07</v>
+        <v>3.626761680185414e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.863867585996679e-07</v>
+        <v>1.783751759168625e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.871297183630494e-07</v>
+        <v>1.780677241099038e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.265058650959893e-07</v>
+        <v>1.30058066544641e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.160738852675359e-07</v>
+        <v>8.905402632666925e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>6.929113026994656e-08</v>
+        <v>6.79880875581597e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>8.285999908596418e-08</v>
+        <v>8.018810998121406e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.735087631150214e-07</v>
+        <v>1.70619073906037e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.121237538666754e-07</v>
+        <v>1.101991146029007e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.950612617850874e-08</v>
+        <v>4.538809656819291e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.365126534544459e-08</v>
+        <v>3.826640629506293e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3.780294998012198e-08</v>
+        <v>3.514246496435049e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.462034239846671e-08</v>
+        <v>4.079163364534517e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>7.989393267152415e-08</v>
+        <v>7.837155124953282e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.789684835972765e-07</v>
+        <v>1.764455698441341e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.000087985899944e-07</v>
+        <v>1.972156076819411e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.292038962402452e-07</v>
+        <v>2.291779465443138e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2.3288270266798e-07</v>
+        <v>2.318963636566443e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.037338482018584e-07</v>
+        <v>2.009810915413679e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.787504415578855e-07</v>
+        <v>1.759155124881758e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.326560986383378e-07</v>
+        <v>1.333648994959274e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.205371707971191e-07</v>
+        <v>1.194204836645866e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.117771019743006e-07</v>
+        <v>1.130176918048851e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.109584127388028e-07</v>
+        <v>1.091732500221372e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.075705450821194e-07</v>
+        <v>1.031534975644707e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.057422415908587e-07</v>
+        <v>1.017671695190014e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.187479364252702e-07</v>
+        <v>1.170258047866546e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.545155113249327e-07</v>
+        <v>1.523461033499351e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2.397477858610886e-07</v>
+        <v>2.398197699764025e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>3.537058234590728e-07</v>
+        <v>3.555480950925281e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>4.596540286746929e-07</v>
+        <v>4.615580064152146e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>5.97783744040789e-07</v>
+        <v>5.993188028256509e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>7.346524751767818e-07</v>
+        <v>7.380481707481639e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>7.86715681432807e-07</v>
+        <v>7.88051154234109e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>9.674196549063326e-07</v>
+        <v>9.683599082281072e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.161319023515001e-06</v>
+        <v>1.167473879335261e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.167670134908793e-06</v>
+        <v>1.171286634153487e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.289746421906297e-06</v>
+        <v>1.304163855240065e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.306214961842898e-06</v>
+        <v>1.309465887441248e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.291100421935471e-06</v>
+        <v>1.299924261112637e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.261371742268026e-06</v>
+        <v>1.267194858721241e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.25523105414476e-06</v>
+        <v>1.25749934768578e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.185948374937984e-06</v>
+        <v>1.197759273180083e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.153746761692039e-06</v>
+        <v>1.158155944781235e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>9.310761342461577e-07</v>
+        <v>9.390077895741306e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>8.553339009451316e-07</v>
+        <v>8.556114225944101e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>7.131790396817013e-07</v>
+        <v>7.155060506955899e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>5.432154829760622e-07</v>
+        <v>5.465797917447973e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>4.921088154545651e-07</v>
+        <v>4.945922430872166e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>4.204101968373774e-07</v>
+        <v>4.213556935969693e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>3.975172203196972e-07</v>
+        <v>3.992599499062113e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>3.993391129937108e-07</v>
+        <v>4.003487544492232e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.942802758744251e-07</v>
+        <v>3.955610286967332e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>3.777553585940309e-07</v>
+        <v>3.785910766338784e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3.792641127741082e-07</v>
+        <v>3.797821260127456e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.821796353739492e-07</v>
+        <v>3.824580810528036e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>4.217116092830127e-07</v>
+        <v>4.233687967067653e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>4.583157008155841e-07</v>
+        <v>4.583609713250852e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>4.788600414149733e-07</v>
+        <v>4.785940264375194e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>4.817577382202261e-07</v>
+        <v>4.819480539314846e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>4.67188455102535e-07</v>
+        <v>4.686541320526516e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>4.395354032264422e-07</v>
+        <v>4.392340056972565e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.751337266321608e-07</v>
+        <v>3.770781350538547e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.308271834357867e-07</v>
+        <v>2.322887716038107e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.925554117353305e-07</v>
+        <v>1.94578383479135e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.544006681441259e-07</v>
+        <v>1.552018457452051e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.173297972958378e-07</v>
+        <v>1.180048117257711e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.094817214998011e-07</v>
+        <v>1.096511693892384e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.067341021592585e-07</v>
+        <v>1.06769974760952e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.086134212169241e-07</v>
+        <v>1.079812622187622e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.028012913963481e-07</v>
+        <v>1.021143080631746e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.024723850919325e-07</v>
+        <v>1.025464205595353e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.031891567520885e-07</v>
+        <v>1.024429084391061e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.018495335400033e-07</v>
+        <v>1.01989537389166e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>9.942220160586688e-08</v>
+        <v>1.003352304111103e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>9.650754580756141e-08</v>
+        <v>9.607615487582097e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>9.48907706977093e-08</v>
+        <v>9.472103313822771e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>8.872677109267511e-08</v>
+        <v>8.826324544290707e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>8.913271256446008e-08</v>
+        <v>8.835751856060378e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>9.060960303681268e-08</v>
+        <v>9.049219665153259e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>8.909374643636567e-08</v>
+        <v>8.777610806440255e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>7.788100867598412e-08</v>
+        <v>7.719763077135092e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>6.794085473688089e-08</v>
+        <v>6.823497351003332e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>6.344866765127977e-08</v>
+        <v>6.345217831638025e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>6.147247612529068e-08</v>
+        <v>6.229867143179367e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>7.631384263330311e-08</v>
+        <v>7.603597359791755e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.294904246297051e-07</v>
+        <v>1.288985083499342e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.556313599155799e-07</v>
+        <v>1.55768074415276e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.650879387976352e-07</v>
+        <v>1.646422645543946e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.66659258288011e-07</v>
+        <v>1.664420096674805e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.70749707525023e-07</v>
+        <v>1.705989531810745e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.710775998209673e-07</v>
+        <v>1.717170934902297e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.627749731956522e-07</v>
+        <v>1.636821772892694e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.496935785279123e-07</v>
+        <v>1.506698328072778e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.231145828822123e-08</v>
+        <v>9.248687859770222e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>5.818943180876165e-08</v>
+        <v>5.867916597883874e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>5.164626587960818e-08</v>
+        <v>5.167263342222173e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>5.650863450751942e-08</v>
+        <v>5.697111152749643e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>7.828416623399889e-08</v>
+        <v>7.830112355145505e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>8.629092994143383e-08</v>
+        <v>8.610337975553418e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.279924485362187e-07</v>
+        <v>1.273574056995339e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66909477941862e-07</v>
+        <v>1.696556016608198e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.732528676592453e-07</v>
+        <v>1.735085936881458e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.641791740983843e-07</v>
+        <v>1.643777934044408e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.455914016121066e-07</v>
+        <v>1.454189024899593e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.284178643224412e-07</v>
+        <v>1.279013202507171e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.084385568603193e-07</v>
+        <v>1.100126538970981e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>9.96014935793862e-08</v>
+        <v>9.876148497585267e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>9.8914272741178e-08</v>
+        <v>9.696453028600827e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>9.431324833396335e-08</v>
+        <v>8.671039869752188e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>9.374772501520305e-08</v>
+        <v>9.314123805185932e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>9.013908590826497e-08</v>
+        <v>9.042057910251139e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>9.841987535766902e-08</v>
+        <v>9.488325348182599e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.12316312072078e-07</v>
+        <v>1.112174806346889e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.254234921417148e-07</v>
+        <v>1.248494169845252e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.405086316499111e-07</v>
+        <v>1.399043269198867e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.607180117812788e-07</v>
+        <v>1.603615730793122e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.757771019594605e-07</v>
+        <v>1.760758095576179e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.706507357566183e-07</v>
+        <v>1.701883603783092e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.530671992089464e-07</v>
+        <v>1.535521906862849e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.504479304460738e-07</v>
+        <v>1.510780830795817e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.330022371241085e-07</v>
+        <v>1.339235526942378e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.273130703985175e-07</v>
+        <v>1.276462138190574e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.241731129624166e-07</v>
+        <v>1.246670953128156e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.559820911570667e-07</v>
+        <v>1.568320661569095e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.367164215801566e-07</v>
+        <v>1.370345241652275e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.431223795428698e-07</v>
+        <v>1.438840232246502e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.298820940025179e-07</v>
+        <v>1.304203954761537e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.215765429492255e-07</v>
+        <v>1.221095508993531e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.153653927413818e-07</v>
+        <v>1.154515503619062e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.066426197930947e-07</v>
+        <v>1.073929918092735e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>9.952364093241253e-08</v>
+        <v>9.997217571717732e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.014540531383557e-07</v>
+        <v>1.020925688740023e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>5.235343921433718e-08</v>
+        <v>5.265263402195917e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2.159303183355736e-08</v>
+        <v>2.223469931791253e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.300745565422897e-08</v>
+        <v>1.328883653010138e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.872444353782101e-08</v>
+        <v>1.904518435927239e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.165910531372265e-08</v>
+        <v>1.203307720438754e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>9.327273171580029e-09</v>
+        <v>9.688255877997096e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>7.818858520919975e-09</v>
+        <v>8.09460543894391e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>7.874641914320458e-09</v>
+        <v>7.207603965804037e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.143288940162979e-08</v>
+        <v>1.152172465316027e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.073088510543554e-08</v>
+        <v>2.059369206702202e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>2.277851816830394e-08</v>
+        <v>2.30042076915342e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.949754084501489e-08</v>
+        <v>1.982252368513049e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.727285204563343e-08</v>
+        <v>1.762399406700083e-08</v>
       </c>
     </row>
   </sheetData>
